--- a/untranslated/downloads/data-excel/1.2.1.1a.xlsx
+++ b/untranslated/downloads/data-excel/1.2.1.1a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Национальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Национальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,12 +59,6 @@
     <t>(пайыз менен)</t>
   </si>
   <si>
-    <t>мужчины</t>
-  </si>
-  <si>
-    <t>женщины</t>
-  </si>
-  <si>
     <t>15-19</t>
   </si>
   <si>
@@ -101,12 +95,6 @@
     <t>70+</t>
   </si>
   <si>
-    <t>город</t>
-  </si>
-  <si>
-    <t>село</t>
-  </si>
-  <si>
     <t>Сельское хозяйство, лесное хозяйство и рыболовство</t>
   </si>
   <si>
@@ -170,33 +158,9 @@
     <t>Деятельность экстерриториальных организаций</t>
   </si>
   <si>
-    <t>по возрастным группам:</t>
-  </si>
-  <si>
-    <t>по отраслям экономики:</t>
-  </si>
-  <si>
-    <t>by age</t>
-  </si>
-  <si>
-    <t>men</t>
-  </si>
-  <si>
-    <t>women</t>
-  </si>
-  <si>
     <t>Кыргызская Rеспублика</t>
   </si>
   <si>
-    <t>по местности:</t>
-  </si>
-  <si>
-    <t>rural</t>
-  </si>
-  <si>
-    <t>urban</t>
-  </si>
-  <si>
     <t>Agriculture, forestry and fishing</t>
   </si>
   <si>
@@ -269,48 +233,12 @@
     <t>1.2.1.1a Proportion of employed population living below the official poverty line</t>
   </si>
   <si>
-    <t xml:space="preserve">by type of  activity </t>
-  </si>
-  <si>
-    <t>by territory:</t>
-  </si>
-  <si>
-    <t>по полу</t>
-  </si>
-  <si>
-    <t>by sex</t>
-  </si>
-  <si>
     <t>…</t>
   </si>
   <si>
     <t>1.2.1.1а Расмий кедейчиликтин чегине ылайык иш менен камсыз болгон калктын арасындагы жакырчылыктын деңгээли</t>
   </si>
   <si>
-    <t>жынысы боюнча</t>
-  </si>
-  <si>
-    <t>эркектер</t>
-  </si>
-  <si>
-    <t>аялдар</t>
-  </si>
-  <si>
-    <t>жаш-курагы бонча</t>
-  </si>
-  <si>
-    <t>Жерлери боюнча</t>
-  </si>
-  <si>
-    <t>шаар</t>
-  </si>
-  <si>
-    <t>айыл</t>
-  </si>
-  <si>
-    <t>экономиканын тармактары боюнча</t>
-  </si>
-  <si>
     <t>Айыл чарба, токой чарбасы жана балык уулоо</t>
   </si>
   <si>
@@ -375,6 +303,78 @@
   </si>
   <si>
     <t>Кыргыз Республикасы</t>
+  </si>
+  <si>
+    <t>By sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By type of  activity </t>
+  </si>
+  <si>
+    <t>Men</t>
+  </si>
+  <si>
+    <t>Women</t>
+  </si>
+  <si>
+    <t>By age group</t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>Жаш-курагы бонюча</t>
+  </si>
+  <si>
+    <t>По возрастным группам:</t>
+  </si>
+  <si>
+    <t>Жынысы боюнча</t>
+  </si>
+  <si>
+    <t>По полу</t>
+  </si>
+  <si>
+    <t>Эркектер</t>
+  </si>
+  <si>
+    <t>Аялдар</t>
+  </si>
+  <si>
+    <t>Мужчины</t>
+  </si>
+  <si>
+    <t>Женщины</t>
+  </si>
+  <si>
+    <t>Местность</t>
+  </si>
+  <si>
+    <t>Жерлер</t>
+  </si>
+  <si>
+    <t>Urbanization</t>
+  </si>
+  <si>
+    <t>Город</t>
+  </si>
+  <si>
+    <t>Село</t>
+  </si>
+  <si>
+    <t>Шаар</t>
+  </si>
+  <si>
+    <t>Айыл</t>
+  </si>
+  <si>
+    <t>Экономиканын тармактары боюнча</t>
+  </si>
+  <si>
+    <t>По отраслям экономики</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -673,6 +673,9 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal 17" xfId="4"/>
@@ -8423,9 +8426,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8435,22 +8440,22 @@
     <col min="4" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -8465,7 +8470,7 @@
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -8474,7 +8479,7 @@
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -8499,16 +8504,19 @@
       <c r="H4" s="8">
         <v>2019</v>
       </c>
+      <c r="I4" s="8">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D5" s="37">
         <v>22.971916353735754</v>
@@ -8525,32 +8533,36 @@
       <c r="H5" s="38">
         <v>13.2</v>
       </c>
+      <c r="I5" s="38">
+        <v>17.2</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
     </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="D7" s="14">
         <v>24.625380526353009</v>
@@ -8567,16 +8579,19 @@
       <c r="H7" s="14">
         <v>14.9</v>
       </c>
+      <c r="I7" s="14">
+        <v>18.7</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="D8" s="15">
         <v>20.568799401966807</v>
@@ -8593,32 +8608,36 @@
       <c r="H8" s="35">
         <v>10.5</v>
       </c>
+      <c r="I8" s="35">
+        <v>14.9</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" s="22">
         <v>23.727491891830027</v>
@@ -8635,16 +8654,19 @@
       <c r="H10" s="31">
         <v>6.6</v>
       </c>
+      <c r="I10" s="31">
+        <v>11.4</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="22">
         <v>19.900404104368668</v>
@@ -8661,16 +8683,19 @@
       <c r="H11" s="31">
         <v>8.1</v>
       </c>
+      <c r="I11" s="31">
+        <v>8.9</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" s="22">
         <v>20.936837214778837</v>
@@ -8687,16 +8712,19 @@
       <c r="H12" s="22">
         <v>11.1</v>
       </c>
+      <c r="I12" s="22">
+        <v>15.3</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" s="22">
         <v>31.941973691113994</v>
@@ -8713,16 +8741,19 @@
       <c r="H13" s="22">
         <v>17.100000000000001</v>
       </c>
+      <c r="I13" s="22">
+        <v>22.1</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" s="22">
         <v>33.358438093348205</v>
@@ -8739,16 +8770,19 @@
       <c r="H14" s="22">
         <v>25</v>
       </c>
+      <c r="I14" s="22">
+        <v>27.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D15" s="22">
         <v>27.540969086733867</v>
@@ -8765,16 +8799,19 @@
       <c r="H15" s="22">
         <v>16.100000000000001</v>
       </c>
+      <c r="I15" s="22">
+        <v>25.2</v>
+      </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" s="22">
         <v>20.291456975420921</v>
@@ -8791,16 +8828,19 @@
       <c r="H16" s="22">
         <v>11.1</v>
       </c>
+      <c r="I16" s="22">
+        <v>16.100000000000001</v>
+      </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="22">
         <v>12.363589530005411</v>
@@ -8817,16 +8857,19 @@
       <c r="H17" s="22">
         <v>8.6</v>
       </c>
+      <c r="I17" s="22">
+        <v>12.3</v>
+      </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" s="22">
         <v>11.3934157044781</v>
@@ -8843,16 +8886,19 @@
       <c r="H18" s="22">
         <v>7.9</v>
       </c>
+      <c r="I18" s="22">
+        <v>8.9</v>
+      </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D19" s="22">
         <v>9.4370766036096025</v>
@@ -8869,16 +8915,19 @@
       <c r="H19" s="22">
         <v>8.8000000000000007</v>
       </c>
+      <c r="I19" s="22">
+        <v>10.199999999999999</v>
+      </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" s="22">
         <v>5.3483560499368208</v>
@@ -8895,16 +8944,19 @@
       <c r="H20" s="22">
         <v>4.2</v>
       </c>
+      <c r="I20" s="22">
+        <v>9.4</v>
+      </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D21" s="22">
         <v>4.3248118918794747</v>
@@ -8921,32 +8973,36 @@
       <c r="H21" s="22">
         <v>7.3</v>
       </c>
+      <c r="I21" s="22">
+        <v>5.0999999999999996</v>
+      </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
       <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
     </row>
-    <row r="23" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="D23" s="14">
         <v>18.096777347528821</v>
@@ -8963,16 +9019,19 @@
       <c r="H23" s="32">
         <v>9.6999999999999993</v>
       </c>
+      <c r="I23" s="32">
+        <v>12.4</v>
+      </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="D24" s="15">
         <v>25.484816175693549</v>
@@ -8989,32 +9048,36 @@
       <c r="H24" s="32">
         <v>15.2</v>
       </c>
+      <c r="I24" s="32">
+        <v>20.100000000000001</v>
+      </c>
     </row>
-    <row r="25" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>76</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
     </row>
-    <row r="26" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D26" s="22">
         <v>29.143908007004935</v>
@@ -9031,16 +9094,19 @@
       <c r="H26" s="32">
         <v>14.2</v>
       </c>
+      <c r="I26" s="32">
+        <v>21.1</v>
+      </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D27" s="22">
         <v>25.706732621123876</v>
@@ -9057,16 +9123,19 @@
       <c r="H27" s="32">
         <v>40.4</v>
       </c>
+      <c r="I27" s="32">
+        <v>40.1</v>
+      </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D28" s="22">
         <v>20.686606210854819</v>
@@ -9083,16 +9152,19 @@
       <c r="H28" s="32">
         <v>14.3</v>
       </c>
+      <c r="I28" s="32">
+        <v>13.5</v>
+      </c>
     </row>
-    <row r="29" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D29" s="22">
         <v>10.380818288468426</v>
@@ -9109,16 +9181,19 @@
       <c r="H29" s="32">
         <v>10</v>
       </c>
+      <c r="I29" s="32">
+        <v>18.7</v>
+      </c>
     </row>
-    <row r="30" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D30" s="22">
         <v>8.7634580318953859</v>
@@ -9135,16 +9210,19 @@
       <c r="H30" s="32">
         <v>16.3</v>
       </c>
+      <c r="I30" s="32">
+        <v>24.4</v>
+      </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D31" s="22">
         <v>30.479758516587125</v>
@@ -9161,16 +9239,19 @@
       <c r="H31" s="32">
         <v>16.100000000000001</v>
       </c>
+      <c r="I31" s="32">
+        <v>21.6</v>
+      </c>
     </row>
-    <row r="32" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D32" s="22">
         <v>17.048203277049947</v>
@@ -9187,16 +9268,19 @@
       <c r="H32" s="32">
         <v>11.6</v>
       </c>
+      <c r="I32" s="32">
+        <v>10.1</v>
+      </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D33" s="22">
         <v>22.274049816094269</v>
@@ -9213,16 +9297,19 @@
       <c r="H33" s="32">
         <v>15.2</v>
       </c>
+      <c r="I33" s="32">
+        <v>19.399999999999999</v>
+      </c>
     </row>
-    <row r="34" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D34" s="22">
         <v>18.210339702711089</v>
@@ -9239,16 +9326,19 @@
       <c r="H34" s="32">
         <v>8.9</v>
       </c>
+      <c r="I34" s="32">
+        <v>11.6</v>
+      </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D35" s="22">
         <v>23.378289047105444</v>
@@ -9265,16 +9355,19 @@
       <c r="H35" s="32">
         <v>2.1</v>
       </c>
+      <c r="I35" s="32">
+        <v>5.3</v>
+      </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D36" s="22">
         <v>10.489031113365179</v>
@@ -9291,16 +9384,19 @@
       <c r="H36" s="32">
         <v>15.6</v>
       </c>
+      <c r="I36" s="32">
+        <v>20.5</v>
+      </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D37" s="22">
         <v>3.9345552103031651</v>
@@ -9313,16 +9409,19 @@
       </c>
       <c r="G37" s="24"/>
       <c r="H37" s="34"/>
+      <c r="I37" s="40">
+        <v>9</v>
+      </c>
     </row>
-    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D38" s="17">
         <v>18.961062865334473</v>
@@ -9339,16 +9438,19 @@
       <c r="H38" s="32">
         <v>12.6</v>
       </c>
+      <c r="I38" s="32">
+        <v>21</v>
+      </c>
     </row>
-    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D39" s="17">
         <v>13.647895195863507</v>
@@ -9365,16 +9467,19 @@
       <c r="H39" s="32">
         <v>10.8</v>
       </c>
+      <c r="I39" s="32">
+        <v>12</v>
+      </c>
     </row>
-    <row r="40" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D40" s="17">
         <v>16.876778837009706</v>
@@ -9391,16 +9496,19 @@
       <c r="H40" s="32">
         <v>6.7</v>
       </c>
+      <c r="I40" s="32">
+        <v>13.1</v>
+      </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D41" s="17">
         <v>20.413163685010215</v>
@@ -9417,16 +9525,19 @@
       <c r="H41" s="32">
         <v>13.2</v>
       </c>
+      <c r="I41" s="32">
+        <v>22</v>
+      </c>
     </row>
-    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D42" s="22">
         <v>13.310295070774758</v>
@@ -9443,16 +9554,19 @@
       <c r="H42" s="32">
         <v>10.9</v>
       </c>
+      <c r="I42" s="32">
+        <v>22.9</v>
+      </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D43" s="22">
         <v>24.880927816476003</v>
@@ -9469,16 +9583,19 @@
       <c r="H43" s="32">
         <v>13.3</v>
       </c>
+      <c r="I43" s="32">
+        <v>12.6</v>
+      </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D44" s="22">
         <v>14.316550849178517</v>
@@ -9495,16 +9612,19 @@
       <c r="H44" s="32">
         <v>6.8</v>
       </c>
+      <c r="I44" s="32">
+        <v>12.5</v>
+      </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D45" s="22">
         <v>23.958709378309926</v>
@@ -9521,34 +9641,40 @@
       <c r="H45" s="32">
         <v>18.3</v>
       </c>
+      <c r="I45" s="32">
+        <v>36</v>
+      </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F46" s="28">
         <v>15.59978614323523</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>80</v>
+        <v>64</v>
+      </c>
+      <c r="I46" s="28">
+        <v>10.7</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>

--- a/untranslated/downloads/data-excel/1.2.1.1a.xlsx
+++ b/untranslated/downloads/data-excel/1.2.1.1a.xlsx
@@ -320,12 +320,6 @@
     <t>By age group</t>
   </si>
   <si>
-    <t>Urban</t>
-  </si>
-  <si>
-    <t>Rural</t>
-  </si>
-  <si>
     <t>Жаш-курагы бонюча</t>
   </si>
   <si>
@@ -359,22 +353,28 @@
     <t>Urbanization</t>
   </si>
   <si>
-    <t>Город</t>
-  </si>
-  <si>
-    <t>Село</t>
-  </si>
-  <si>
-    <t>Шаар</t>
-  </si>
-  <si>
-    <t>Айыл</t>
-  </si>
-  <si>
     <t>Экономиканын тармактары боюнча</t>
   </si>
   <si>
     <t>По отраслям экономики</t>
+  </si>
+  <si>
+    <t>Шаар жерлери</t>
+  </si>
+  <si>
+    <t>Городские поселения</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Айыл аймагы</t>
+  </si>
+  <si>
+    <t>Сельская местность</t>
+  </si>
+  <si>
+    <t>Village</t>
   </si>
 </sst>
 </file>
@@ -8429,7 +8429,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8539,10 +8539,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>88</v>
@@ -8556,10 +8556,10 @@
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>90</v>
@@ -8585,10 +8585,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>91</v>
@@ -8614,10 +8614,10 @@
     </row>
     <row r="9" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>92</v>
@@ -8979,13 +8979,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B22" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>103</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>105</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
@@ -8996,13 +8996,13 @@
     </row>
     <row r="23" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>93</v>
       </c>
       <c r="D23" s="14">
         <v>18.096777347528821</v>
@@ -9028,10 +9028,10 @@
         <v>109</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D24" s="15">
         <v>25.484816175693549</v>
@@ -9054,10 +9054,10 @@
     </row>
     <row r="25" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>89</v>

--- a/untranslated/downloads/data-excel/1.2.1.1a.xlsx
+++ b/untranslated/downloads/data-excel/1.2.1.1a.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="112">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -570,7 +570,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -674,6 +674,12 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -8426,10 +8432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8440,7 +8446,7 @@
     <col min="4" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
@@ -8455,7 +8461,7 @@
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -8470,7 +8476,7 @@
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -8479,7 +8485,7 @@
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -8507,8 +8513,11 @@
       <c r="I4" s="8">
         <v>2020</v>
       </c>
+      <c r="J4" s="8">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>87</v>
       </c>
@@ -8536,8 +8545,11 @@
       <c r="I5" s="38">
         <v>17.2</v>
       </c>
+      <c r="J5" s="41">
+        <v>24.7</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>95</v>
       </c>
@@ -8553,8 +8565,9 @@
       <c r="G6" s="17"/>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
+      <c r="J6" s="42"/>
     </row>
-    <row r="7" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>97</v>
       </c>
@@ -8582,8 +8595,11 @@
       <c r="I7" s="14">
         <v>18.7</v>
       </c>
+      <c r="J7" s="14">
+        <v>26.3</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>98</v>
       </c>
@@ -8611,8 +8627,11 @@
       <c r="I8" s="35">
         <v>14.9</v>
       </c>
+      <c r="J8" s="15">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>93</v>
       </c>
@@ -8628,8 +8647,9 @@
       <c r="G9" s="17"/>
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
+      <c r="J9" s="43"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>6</v>
       </c>
@@ -8657,8 +8677,11 @@
       <c r="I10" s="31">
         <v>11.4</v>
       </c>
+      <c r="J10" s="31">
+        <v>18</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>7</v>
       </c>
@@ -8686,8 +8709,11 @@
       <c r="I11" s="31">
         <v>8.9</v>
       </c>
+      <c r="J11" s="31">
+        <v>17.2</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>8</v>
       </c>
@@ -8715,8 +8741,11 @@
       <c r="I12" s="22">
         <v>15.3</v>
       </c>
+      <c r="J12" s="22">
+        <v>23.2</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>9</v>
       </c>
@@ -8744,8 +8773,11 @@
       <c r="I13" s="22">
         <v>22.1</v>
       </c>
+      <c r="J13" s="22">
+        <v>29.1</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>10</v>
       </c>
@@ -8773,8 +8805,11 @@
       <c r="I14" s="22">
         <v>27.5</v>
       </c>
+      <c r="J14" s="22">
+        <v>34.200000000000003</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>11</v>
       </c>
@@ -8802,8 +8837,11 @@
       <c r="I15" s="22">
         <v>25.2</v>
       </c>
+      <c r="J15" s="22">
+        <v>33.4</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>12</v>
       </c>
@@ -8831,8 +8869,11 @@
       <c r="I16" s="22">
         <v>16.100000000000001</v>
       </c>
+      <c r="J16" s="22">
+        <v>26.4</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>13</v>
       </c>
@@ -8860,8 +8901,11 @@
       <c r="I17" s="22">
         <v>12.3</v>
       </c>
+      <c r="J17" s="22">
+        <v>20.100000000000001</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>14</v>
       </c>
@@ -8889,8 +8933,11 @@
       <c r="I18" s="22">
         <v>8.9</v>
       </c>
+      <c r="J18" s="22">
+        <v>13</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>15</v>
       </c>
@@ -8918,8 +8965,11 @@
       <c r="I19" s="22">
         <v>10.199999999999999</v>
       </c>
+      <c r="J19" s="22">
+        <v>14.3</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>16</v>
       </c>
@@ -8947,8 +8997,11 @@
       <c r="I20" s="22">
         <v>9.4</v>
       </c>
+      <c r="J20" s="22">
+        <v>17.100000000000001</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
@@ -8976,8 +9029,11 @@
       <c r="I21" s="22">
         <v>5.0999999999999996</v>
       </c>
+      <c r="J21" s="22">
+        <v>13.6</v>
+      </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>102</v>
       </c>
@@ -8993,8 +9049,9 @@
       <c r="G22" s="22"/>
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
+      <c r="J22" s="42"/>
     </row>
-    <row r="23" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>106</v>
       </c>
@@ -9022,8 +9079,11 @@
       <c r="I23" s="32">
         <v>12.4</v>
       </c>
+      <c r="J23" s="14">
+        <v>24.8</v>
+      </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>109</v>
       </c>
@@ -9051,8 +9111,11 @@
       <c r="I24" s="32">
         <v>20.100000000000001</v>
       </c>
+      <c r="J24" s="15">
+        <v>24.6</v>
+      </c>
     </row>
-    <row r="25" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>104</v>
       </c>
@@ -9068,8 +9131,9 @@
       <c r="G25" s="17"/>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
+      <c r="J25" s="43"/>
     </row>
-    <row r="26" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>66</v>
       </c>
@@ -9097,8 +9161,11 @@
       <c r="I26" s="32">
         <v>21.1</v>
       </c>
+      <c r="J26" s="32">
+        <v>24.3</v>
+      </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>67</v>
       </c>
@@ -9126,8 +9193,11 @@
       <c r="I27" s="32">
         <v>40.1</v>
       </c>
+      <c r="J27" s="32">
+        <v>47.1</v>
+      </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>68</v>
       </c>
@@ -9155,8 +9225,11 @@
       <c r="I28" s="32">
         <v>13.5</v>
       </c>
+      <c r="J28" s="32">
+        <v>23.6</v>
+      </c>
     </row>
-    <row r="29" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>69</v>
       </c>
@@ -9184,8 +9257,11 @@
       <c r="I29" s="32">
         <v>18.7</v>
       </c>
+      <c r="J29" s="32">
+        <v>28.8</v>
+      </c>
     </row>
-    <row r="30" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>70</v>
       </c>
@@ -9213,8 +9289,11 @@
       <c r="I30" s="32">
         <v>24.4</v>
       </c>
+      <c r="J30" s="32">
+        <v>27.8</v>
+      </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>71</v>
       </c>
@@ -9242,8 +9321,11 @@
       <c r="I31" s="32">
         <v>21.6</v>
       </c>
+      <c r="J31" s="32">
+        <v>29.9</v>
+      </c>
     </row>
-    <row r="32" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>72</v>
       </c>
@@ -9271,8 +9353,11 @@
       <c r="I32" s="32">
         <v>10.1</v>
       </c>
+      <c r="J32" s="32">
+        <v>20.7</v>
+      </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>73</v>
       </c>
@@ -9300,8 +9385,11 @@
       <c r="I33" s="32">
         <v>19.399999999999999</v>
       </c>
+      <c r="J33" s="32">
+        <v>26.2</v>
+      </c>
     </row>
-    <row r="34" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>74</v>
       </c>
@@ -9329,8 +9417,11 @@
       <c r="I34" s="32">
         <v>11.6</v>
       </c>
+      <c r="J34" s="32">
+        <v>19.100000000000001</v>
+      </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>75</v>
       </c>
@@ -9358,8 +9449,11 @@
       <c r="I35" s="32">
         <v>5.3</v>
       </c>
+      <c r="J35" s="32">
+        <v>10.7</v>
+      </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>76</v>
       </c>
@@ -9387,8 +9481,11 @@
       <c r="I36" s="32">
         <v>20.5</v>
       </c>
+      <c r="J36" s="32">
+        <v>28.9</v>
+      </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>77</v>
       </c>
@@ -9412,8 +9509,11 @@
       <c r="I37" s="40">
         <v>9</v>
       </c>
+      <c r="J37" s="32">
+        <v>22.7</v>
+      </c>
     </row>
-    <row r="38" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>78</v>
       </c>
@@ -9441,8 +9541,11 @@
       <c r="I38" s="32">
         <v>21</v>
       </c>
+      <c r="J38" s="32">
+        <v>17.899999999999999</v>
+      </c>
     </row>
-    <row r="39" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>79</v>
       </c>
@@ -9470,8 +9573,11 @@
       <c r="I39" s="32">
         <v>12</v>
       </c>
+      <c r="J39" s="32">
+        <v>24.9</v>
+      </c>
     </row>
-    <row r="40" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
         <v>80</v>
       </c>
@@ -9499,8 +9605,11 @@
       <c r="I40" s="32">
         <v>13.1</v>
       </c>
+      <c r="J40" s="32">
+        <v>19.899999999999999</v>
+      </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
         <v>81</v>
       </c>
@@ -9528,8 +9637,11 @@
       <c r="I41" s="32">
         <v>22</v>
       </c>
+      <c r="J41" s="32">
+        <v>30.7</v>
+      </c>
     </row>
-    <row r="42" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
         <v>82</v>
       </c>
@@ -9557,8 +9669,11 @@
       <c r="I42" s="32">
         <v>22.9</v>
       </c>
+      <c r="J42" s="32">
+        <v>25.1</v>
+      </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
         <v>83</v>
       </c>
@@ -9586,8 +9701,11 @@
       <c r="I43" s="32">
         <v>12.6</v>
       </c>
+      <c r="J43" s="32">
+        <v>16.3</v>
+      </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
         <v>84</v>
       </c>
@@ -9615,8 +9733,11 @@
       <c r="I44" s="32">
         <v>12.5</v>
       </c>
+      <c r="J44" s="32">
+        <v>24.3</v>
+      </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
         <v>85</v>
       </c>
@@ -9644,8 +9765,11 @@
       <c r="I45" s="32">
         <v>36</v>
       </c>
+      <c r="J45" s="32">
+        <v>20.6</v>
+      </c>
     </row>
-    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
         <v>86</v>
       </c>
@@ -9673,8 +9797,11 @@
       <c r="I46" s="28">
         <v>10.7</v>
       </c>
+      <c r="J46" s="44" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>

--- a/untranslated/downloads/data-excel/1.2.1.1a.xlsx
+++ b/untranslated/downloads/data-excel/1.2.1.1a.xlsx
@@ -382,8 +382,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -566,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -609,14 +609,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -631,13 +631,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -646,10 +646,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -658,22 +658,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8432,10 +8432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8446,7 +8446,7 @@
     <col min="4" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
@@ -8461,7 +8461,7 @@
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -8476,7 +8476,7 @@
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -8485,7 +8485,7 @@
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -8516,8 +8516,11 @@
       <c r="J4" s="8">
         <v>2021</v>
       </c>
+      <c r="K4" s="8">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>87</v>
       </c>
@@ -8548,8 +8551,11 @@
       <c r="J5" s="41">
         <v>24.7</v>
       </c>
+      <c r="K5" s="38">
+        <v>24.2</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>95</v>
       </c>
@@ -8566,8 +8572,9 @@
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
       <c r="J6" s="42"/>
+      <c r="K6" s="33"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>97</v>
       </c>
@@ -8598,8 +8605,11 @@
       <c r="J7" s="14">
         <v>26.3</v>
       </c>
+      <c r="K7" s="14">
+        <v>25.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>98</v>
       </c>
@@ -8630,8 +8640,11 @@
       <c r="J8" s="15">
         <v>22</v>
       </c>
+      <c r="K8" s="35">
+        <v>22.3</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>93</v>
       </c>
@@ -8648,8 +8661,9 @@
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
       <c r="J9" s="43"/>
+      <c r="K9" s="36"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>6</v>
       </c>
@@ -8680,8 +8694,11 @@
       <c r="J10" s="31">
         <v>18</v>
       </c>
+      <c r="K10" s="31">
+        <v>18</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>7</v>
       </c>
@@ -8712,8 +8729,11 @@
       <c r="J11" s="31">
         <v>17.2</v>
       </c>
+      <c r="K11" s="31">
+        <v>18.899999999999999</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>8</v>
       </c>
@@ -8744,8 +8764,11 @@
       <c r="J12" s="22">
         <v>23.2</v>
       </c>
+      <c r="K12" s="22">
+        <v>21.3</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>9</v>
       </c>
@@ -8776,8 +8799,11 @@
       <c r="J13" s="22">
         <v>29.1</v>
       </c>
+      <c r="K13" s="22">
+        <v>30.2</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>10</v>
       </c>
@@ -8808,8 +8834,11 @@
       <c r="J14" s="22">
         <v>34.200000000000003</v>
       </c>
+      <c r="K14" s="22">
+        <v>31.7</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>11</v>
       </c>
@@ -8840,8 +8869,11 @@
       <c r="J15" s="22">
         <v>33.4</v>
       </c>
+      <c r="K15" s="22">
+        <v>34.1</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>12</v>
       </c>
@@ -8872,8 +8904,11 @@
       <c r="J16" s="22">
         <v>26.4</v>
       </c>
+      <c r="K16" s="22">
+        <v>25.8</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>13</v>
       </c>
@@ -8904,8 +8939,11 @@
       <c r="J17" s="22">
         <v>20.100000000000001</v>
       </c>
+      <c r="K17" s="22">
+        <v>20</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>14</v>
       </c>
@@ -8936,8 +8974,11 @@
       <c r="J18" s="22">
         <v>13</v>
       </c>
+      <c r="K18" s="22">
+        <v>12.1</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>15</v>
       </c>
@@ -8968,8 +9009,11 @@
       <c r="J19" s="22">
         <v>14.3</v>
       </c>
+      <c r="K19" s="22">
+        <v>10.3</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>16</v>
       </c>
@@ -9000,8 +9044,11 @@
       <c r="J20" s="22">
         <v>17.100000000000001</v>
       </c>
+      <c r="K20" s="22">
+        <v>15.1</v>
+      </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
@@ -9032,8 +9079,11 @@
       <c r="J21" s="22">
         <v>13.6</v>
       </c>
+      <c r="K21" s="22">
+        <v>12.1</v>
+      </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>102</v>
       </c>
@@ -9050,8 +9100,9 @@
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
       <c r="J22" s="42"/>
+      <c r="K22" s="34"/>
     </row>
-    <row r="23" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>106</v>
       </c>
@@ -9082,8 +9133,11 @@
       <c r="J23" s="14">
         <v>24.8</v>
       </c>
+      <c r="K23" s="32">
+        <v>25.9</v>
+      </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>109</v>
       </c>
@@ -9114,8 +9168,11 @@
       <c r="J24" s="15">
         <v>24.6</v>
       </c>
+      <c r="K24" s="32">
+        <v>23.2</v>
+      </c>
     </row>
-    <row r="25" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>104</v>
       </c>
@@ -9132,8 +9189,9 @@
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
       <c r="J25" s="43"/>
+      <c r="K25" s="36"/>
     </row>
-    <row r="26" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>66</v>
       </c>
@@ -9164,8 +9222,11 @@
       <c r="J26" s="32">
         <v>24.3</v>
       </c>
+      <c r="K26" s="32">
+        <v>25.9</v>
+      </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>67</v>
       </c>
@@ -9196,8 +9257,11 @@
       <c r="J27" s="32">
         <v>47.1</v>
       </c>
+      <c r="K27" s="32">
+        <v>48.3</v>
+      </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>68</v>
       </c>
@@ -9228,8 +9292,11 @@
       <c r="J28" s="32">
         <v>23.6</v>
       </c>
+      <c r="K28" s="32">
+        <v>24.3</v>
+      </c>
     </row>
-    <row r="29" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>69</v>
       </c>
@@ -9260,8 +9327,11 @@
       <c r="J29" s="32">
         <v>28.8</v>
       </c>
+      <c r="K29" s="32">
+        <v>28.1</v>
+      </c>
     </row>
-    <row r="30" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>70</v>
       </c>
@@ -9292,8 +9362,11 @@
       <c r="J30" s="32">
         <v>27.8</v>
       </c>
+      <c r="K30" s="32">
+        <v>25.8</v>
+      </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>71</v>
       </c>
@@ -9324,8 +9397,11 @@
       <c r="J31" s="32">
         <v>29.9</v>
       </c>
+      <c r="K31" s="32">
+        <v>27.1</v>
+      </c>
     </row>
-    <row r="32" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>72</v>
       </c>
@@ -9356,8 +9432,11 @@
       <c r="J32" s="32">
         <v>20.7</v>
       </c>
+      <c r="K32" s="32">
+        <v>20.7</v>
+      </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>73</v>
       </c>
@@ -9388,8 +9467,11 @@
       <c r="J33" s="32">
         <v>26.2</v>
       </c>
+      <c r="K33" s="32">
+        <v>24.3</v>
+      </c>
     </row>
-    <row r="34" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>74</v>
       </c>
@@ -9420,8 +9502,11 @@
       <c r="J34" s="32">
         <v>19.100000000000001</v>
       </c>
+      <c r="K34" s="32">
+        <v>19.399999999999999</v>
+      </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>75</v>
       </c>
@@ -9452,8 +9537,11 @@
       <c r="J35" s="32">
         <v>10.7</v>
       </c>
+      <c r="K35" s="32">
+        <v>7.5</v>
+      </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>76</v>
       </c>
@@ -9484,8 +9572,11 @@
       <c r="J36" s="32">
         <v>28.9</v>
       </c>
+      <c r="K36" s="32">
+        <v>11.4</v>
+      </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>77</v>
       </c>
@@ -9512,8 +9603,11 @@
       <c r="J37" s="32">
         <v>22.7</v>
       </c>
+      <c r="K37" s="40">
+        <v>36.5</v>
+      </c>
     </row>
-    <row r="38" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>78</v>
       </c>
@@ -9544,8 +9638,11 @@
       <c r="J38" s="32">
         <v>17.899999999999999</v>
       </c>
+      <c r="K38" s="32">
+        <v>17.8</v>
+      </c>
     </row>
-    <row r="39" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>79</v>
       </c>
@@ -9576,8 +9673,11 @@
       <c r="J39" s="32">
         <v>24.9</v>
       </c>
+      <c r="K39" s="32">
+        <v>20.3</v>
+      </c>
     </row>
-    <row r="40" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
         <v>80</v>
       </c>
@@ -9608,8 +9708,11 @@
       <c r="J40" s="32">
         <v>19.899999999999999</v>
       </c>
+      <c r="K40" s="32">
+        <v>20.5</v>
+      </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
         <v>81</v>
       </c>
@@ -9640,8 +9743,11 @@
       <c r="J41" s="32">
         <v>30.7</v>
       </c>
+      <c r="K41" s="32">
+        <v>32.200000000000003</v>
+      </c>
     </row>
-    <row r="42" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
         <v>82</v>
       </c>
@@ -9672,8 +9778,11 @@
       <c r="J42" s="32">
         <v>25.1</v>
       </c>
+      <c r="K42" s="32">
+        <v>23.2</v>
+      </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
         <v>83</v>
       </c>
@@ -9704,8 +9813,11 @@
       <c r="J43" s="32">
         <v>16.3</v>
       </c>
+      <c r="K43" s="32">
+        <v>23.8</v>
+      </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
         <v>84</v>
       </c>
@@ -9736,8 +9848,11 @@
       <c r="J44" s="32">
         <v>24.3</v>
       </c>
+      <c r="K44" s="32">
+        <v>21</v>
+      </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
         <v>85</v>
       </c>
@@ -9768,8 +9883,11 @@
       <c r="J45" s="32">
         <v>20.6</v>
       </c>
+      <c r="K45" s="32">
+        <v>18</v>
+      </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
         <v>86</v>
       </c>
@@ -9800,8 +9918,11 @@
       <c r="J46" s="44" t="s">
         <v>64</v>
       </c>
+      <c r="K46" s="28">
+        <v>3.2</v>
+      </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>

--- a/untranslated/downloads/data-excel/1.2.1.1a.xlsx
+++ b/untranslated/downloads/data-excel/1.2.1.1a.xlsx
@@ -382,8 +382,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -566,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -609,14 +609,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -631,13 +631,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -646,10 +646,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -658,22 +658,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8432,11 +8432,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8446,7 +8444,7 @@
     <col min="4" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
@@ -8461,7 +8459,7 @@
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -8476,7 +8474,7 @@
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -8485,7 +8483,7 @@
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -8519,8 +8517,11 @@
       <c r="K4" s="8">
         <v>2022</v>
       </c>
+      <c r="L4" s="8">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>87</v>
       </c>
@@ -8554,8 +8555,11 @@
       <c r="K5" s="38">
         <v>24.2</v>
       </c>
+      <c r="L5" s="38">
+        <v>21.9</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>95</v>
       </c>
@@ -8573,8 +8577,9 @@
       <c r="I6" s="33"/>
       <c r="J6" s="42"/>
       <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>97</v>
       </c>
@@ -8608,8 +8613,11 @@
       <c r="K7" s="14">
         <v>25.5</v>
       </c>
+      <c r="L7" s="14">
+        <v>23.2</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>98</v>
       </c>
@@ -8643,8 +8651,11 @@
       <c r="K8" s="35">
         <v>22.3</v>
       </c>
+      <c r="L8" s="35">
+        <v>19.899999999999999</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>93</v>
       </c>
@@ -8662,8 +8673,9 @@
       <c r="I9" s="36"/>
       <c r="J9" s="43"/>
       <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>6</v>
       </c>
@@ -8697,8 +8709,11 @@
       <c r="K10" s="31">
         <v>18</v>
       </c>
+      <c r="L10" s="31">
+        <v>17.100000000000001</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>7</v>
       </c>
@@ -8732,8 +8747,11 @@
       <c r="K11" s="31">
         <v>18.899999999999999</v>
       </c>
+      <c r="L11" s="31">
+        <v>14.7</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>8</v>
       </c>
@@ -8767,8 +8785,11 @@
       <c r="K12" s="22">
         <v>21.3</v>
       </c>
+      <c r="L12" s="22">
+        <v>16.899999999999999</v>
+      </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>9</v>
       </c>
@@ -8802,8 +8823,11 @@
       <c r="K13" s="22">
         <v>30.2</v>
       </c>
+      <c r="L13" s="22">
+        <v>29.1</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>10</v>
       </c>
@@ -8837,8 +8861,11 @@
       <c r="K14" s="22">
         <v>31.7</v>
       </c>
+      <c r="L14" s="22">
+        <v>28.3</v>
+      </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>11</v>
       </c>
@@ -8872,8 +8899,11 @@
       <c r="K15" s="22">
         <v>34.1</v>
       </c>
+      <c r="L15" s="22">
+        <v>33.4</v>
+      </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>12</v>
       </c>
@@ -8907,8 +8937,11 @@
       <c r="K16" s="22">
         <v>25.8</v>
       </c>
+      <c r="L16" s="22">
+        <v>22.1</v>
+      </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>13</v>
       </c>
@@ -8942,8 +8975,11 @@
       <c r="K17" s="22">
         <v>20</v>
       </c>
+      <c r="L17" s="22">
+        <v>16.600000000000001</v>
+      </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>14</v>
       </c>
@@ -8977,8 +9013,11 @@
       <c r="K18" s="22">
         <v>12.1</v>
       </c>
+      <c r="L18" s="22">
+        <v>14.7</v>
+      </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>15</v>
       </c>
@@ -9012,8 +9051,11 @@
       <c r="K19" s="22">
         <v>10.3</v>
       </c>
+      <c r="L19" s="22">
+        <v>9.1</v>
+      </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>16</v>
       </c>
@@ -9047,8 +9089,11 @@
       <c r="K20" s="22">
         <v>15.1</v>
       </c>
+      <c r="L20" s="22">
+        <v>12.5</v>
+      </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
@@ -9082,8 +9127,11 @@
       <c r="K21" s="22">
         <v>12.1</v>
       </c>
+      <c r="L21" s="22">
+        <v>11.6</v>
+      </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>102</v>
       </c>
@@ -9101,8 +9149,9 @@
       <c r="I22" s="34"/>
       <c r="J22" s="42"/>
       <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
     </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>106</v>
       </c>
@@ -9136,8 +9185,11 @@
       <c r="K23" s="32">
         <v>25.9</v>
       </c>
+      <c r="L23" s="32">
+        <v>22.6</v>
+      </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>109</v>
       </c>
@@ -9171,8 +9223,11 @@
       <c r="K24" s="32">
         <v>23.2</v>
       </c>
+      <c r="L24" s="32">
+        <v>21.5</v>
+      </c>
     </row>
-    <row r="25" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>104</v>
       </c>
@@ -9190,8 +9245,9 @@
       <c r="I25" s="36"/>
       <c r="J25" s="43"/>
       <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
     </row>
-    <row r="26" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>66</v>
       </c>
@@ -9225,8 +9281,11 @@
       <c r="K26" s="32">
         <v>25.9</v>
       </c>
+      <c r="L26" s="32">
+        <v>24.3</v>
+      </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>67</v>
       </c>
@@ -9260,8 +9319,11 @@
       <c r="K27" s="32">
         <v>48.3</v>
       </c>
+      <c r="L27" s="32">
+        <v>44.96</v>
+      </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>68</v>
       </c>
@@ -9295,8 +9357,11 @@
       <c r="K28" s="32">
         <v>24.3</v>
       </c>
+      <c r="L28" s="32">
+        <v>22.5</v>
+      </c>
     </row>
-    <row r="29" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>69</v>
       </c>
@@ -9330,8 +9395,11 @@
       <c r="K29" s="32">
         <v>28.1</v>
       </c>
+      <c r="L29" s="32">
+        <v>17.399999999999999</v>
+      </c>
     </row>
-    <row r="30" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>70</v>
       </c>
@@ -9365,8 +9433,11 @@
       <c r="K30" s="32">
         <v>25.8</v>
       </c>
+      <c r="L30" s="32">
+        <v>30</v>
+      </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>71</v>
       </c>
@@ -9400,8 +9471,11 @@
       <c r="K31" s="32">
         <v>27.1</v>
       </c>
+      <c r="L31" s="32">
+        <v>25.3</v>
+      </c>
     </row>
-    <row r="32" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>72</v>
       </c>
@@ -9435,8 +9509,11 @@
       <c r="K32" s="32">
         <v>20.7</v>
       </c>
+      <c r="L32" s="32">
+        <v>21</v>
+      </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>73</v>
       </c>
@@ -9470,8 +9547,11 @@
       <c r="K33" s="32">
         <v>24.3</v>
       </c>
+      <c r="L33" s="32">
+        <v>22</v>
+      </c>
     </row>
-    <row r="34" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>74</v>
       </c>
@@ -9505,8 +9585,11 @@
       <c r="K34" s="32">
         <v>19.399999999999999</v>
       </c>
+      <c r="L34" s="32">
+        <v>15</v>
+      </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>75</v>
       </c>
@@ -9540,8 +9623,11 @@
       <c r="K35" s="32">
         <v>7.5</v>
       </c>
+      <c r="L35" s="32">
+        <v>6.3</v>
+      </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>76</v>
       </c>
@@ -9575,8 +9661,11 @@
       <c r="K36" s="32">
         <v>11.4</v>
       </c>
+      <c r="L36" s="32">
+        <v>9</v>
+      </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>77</v>
       </c>
@@ -9606,8 +9695,11 @@
       <c r="K37" s="40">
         <v>36.5</v>
       </c>
+      <c r="L37" s="40">
+        <v>39.200000000000003</v>
+      </c>
     </row>
-    <row r="38" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>78</v>
       </c>
@@ -9641,8 +9733,11 @@
       <c r="K38" s="32">
         <v>17.8</v>
       </c>
+      <c r="L38" s="32">
+        <v>12</v>
+      </c>
     </row>
-    <row r="39" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>79</v>
       </c>
@@ -9676,8 +9771,11 @@
       <c r="K39" s="32">
         <v>20.3</v>
       </c>
+      <c r="L39" s="32">
+        <v>41.3</v>
+      </c>
     </row>
-    <row r="40" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
         <v>80</v>
       </c>
@@ -9711,8 +9809,11 @@
       <c r="K40" s="32">
         <v>20.5</v>
       </c>
+      <c r="L40" s="32">
+        <v>17.399999999999999</v>
+      </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
         <v>81</v>
       </c>
@@ -9746,8 +9847,11 @@
       <c r="K41" s="32">
         <v>32.200000000000003</v>
       </c>
+      <c r="L41" s="32">
+        <v>25.6</v>
+      </c>
     </row>
-    <row r="42" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
         <v>82</v>
       </c>
@@ -9781,8 +9885,11 @@
       <c r="K42" s="32">
         <v>23.2</v>
       </c>
+      <c r="L42" s="32">
+        <v>18.899999999999999</v>
+      </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
         <v>83</v>
       </c>
@@ -9816,8 +9923,11 @@
       <c r="K43" s="32">
         <v>23.8</v>
       </c>
+      <c r="L43" s="32">
+        <v>15.3</v>
+      </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
         <v>84</v>
       </c>
@@ -9851,8 +9961,11 @@
       <c r="K44" s="32">
         <v>21</v>
       </c>
+      <c r="L44" s="32">
+        <v>18.100000000000001</v>
+      </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
         <v>85</v>
       </c>
@@ -9886,8 +9999,11 @@
       <c r="K45" s="32">
         <v>18</v>
       </c>
+      <c r="L45" s="32">
+        <v>53</v>
+      </c>
     </row>
-    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
         <v>86</v>
       </c>
@@ -9921,8 +10037,11 @@
       <c r="K46" s="28">
         <v>3.2</v>
       </c>
+      <c r="L46" s="28">
+        <v>5.2</v>
+      </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
